--- a/data/trans_media/Q47-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q47-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>169,2; 170,02</t>
+          <t>169,2; 170,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168,95; 169,93</t>
+          <t>168,94; 169,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>169,6; 170,69</t>
+          <t>169,7; 170,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>157,96; 158,71</t>
+          <t>157,91; 158,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>158,16; 158,88</t>
+          <t>158,19; 158,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>158,37; 159,25</t>
+          <t>158,38; 159,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162,92; 163,63</t>
+          <t>162,88; 163,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>162,87; 163,64</t>
+          <t>162,89; 163,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>163,37; 164,3</t>
+          <t>163,4; 164,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>174,22; 174,89</t>
+          <t>174,23; 174,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>173,81; 174,46</t>
+          <t>173,79; 174,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>174,11; 174,78</t>
+          <t>174,14; 174,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>161,83; 162,49</t>
+          <t>161,86; 162,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>161,69; 162,34</t>
+          <t>161,69; 162,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>161,86; 162,48</t>
+          <t>161,88; 162,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>168,27; 168,91</t>
+          <t>168,26; 168,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168,13; 168,75</t>
+          <t>168,1; 168,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>168,12; 168,73</t>
+          <t>168,13; 168,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>174,89; 176,11</t>
+          <t>174,89; 176,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>175,63; 176,96</t>
+          <t>175,66; 176,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>175,74; 177,03</t>
+          <t>175,77; 177,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>163,0; 164,14</t>
+          <t>162,99; 164,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>163,47; 164,76</t>
+          <t>163,52; 164,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>162,63; 163,72</t>
+          <t>162,62; 163,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169,45; 170,57</t>
+          <t>169,48; 170,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169,73; 171,01</t>
+          <t>169,74; 171,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169,17; 170,41</t>
+          <t>169,18; 170,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,86; 173,39</t>
+          <t>172,85; 173,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,59; 174,11</t>
+          <t>173,56; 174,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,12</t>
+          <t>160,64; 161,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,8; 161,25</t>
+          <t>160,81; 161,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,2; 161,66</t>
+          <t>161,2; 161,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,2</t>
+          <t>166,71; 167,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,78; 167,23</t>
+          <t>166,76; 167,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,3; 167,78</t>
+          <t>167,28; 167,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
